--- a/02_MasterWifoMannheim/99_Backup/Course115.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course115.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F5928115938C83174B9F8CD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A3FA794-49C7-40EF-B1CE-F172D34BCBA4}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 648 Incentives and Performance</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>In this course, we study performance management and analyze the link between incentives and individual’s performance in organizations. process, the course covers performance measurement and monitoring, key performance management tools, and implementation of performance management systems targeted at employees in organizations. organizations, both theoretically and empirically from a psychological and economic perspective.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>By the end of the module, students: … will be able to select and implement appropriate performance measures, … are familiar with formal performance appraisals, … understand the link between pay and performance, … are able to analyze the effectiveness of incentives both theoretically and empirically, and … are able to design performance management systems.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Website of the chair / “Student Portal” (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.): 75% Coursework: 25%</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Torsten Biemann</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>MAN 645, MAN 647</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 648 Incentives and Performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>In this course, we study performance management and analyze the link between incentives and individual’s performance in organizations. process, the course covers performance measurement and monitoring, key performance management tools, and implementation of performance management systems targeted at employees in organizations. organizations, both theoretically and empirically from a psychological and economic perspective.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>By the end of the module, students: … will be able to select and implement appropriate performance measures, … are familiar with formal performance appraisals, … understand the link between pay and performance, … are able to analyze the effectiveness of incentives both theoretically and empirically, and … are able to design performance management systems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MAN 645, MAN 647</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Website of the chair / “Student Portal” (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.): 75% Coursework: 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Torsten Biemann</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
